--- a/工装治具/PCB/TestBoard/Project Outputs for Tetst/BOM/Bill of Materials-TestBoard.xlsx
+++ b/工装治具/PCB/TestBoard/Project Outputs for Tetst/BOM/Bill of Materials-TestBoard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-TestBoard" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Comment</t>
   </si>
@@ -50,27 +50,7 @@
     <t>Quantity</t>
   </si>
   <si>
-    <r>
-      <t>HX25080-2*20,2.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>间距，双排</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <charset val="134"/>
-      </rPr>
-      <t>40Pin</t>
-    </r>
+    <t>XHY-40A</t>
   </si>
   <si>
     <t/>
@@ -82,10 +62,7 @@
     <t>CONN-TH_XHY-40A</t>
   </si>
   <si>
-    <t>XHY-40A</t>
-  </si>
-  <si>
-    <t>2.54间距牛角座，2*8Pin</t>
+    <t>KH-2.54PH180-2X8P-L8.9</t>
   </si>
   <si>
     <t>P1, P2, P3, P4, P5, P6, P7, P8, P9, P10, P11, P12, P13, P14, P15, P16, P17, P18, P19, P20, P21, P22, P23, P24</t>
@@ -97,33 +74,7 @@
     <t>HDR-IDC-2.54-2X8P</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HX25080-2*8,2.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>间距，双排</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <charset val="134"/>
-      </rPr>
-      <t>16Pin</t>
-    </r>
+    <t>Header 8X2A</t>
   </si>
   <si>
     <t>Header, 8-Pin, Dual row</t>
@@ -133,9 +84,6 @@
   </si>
   <si>
     <t>HDR2X8_CEN</t>
-  </si>
-  <si>
-    <t>Header 8X2A</t>
   </si>
   <si>
     <t>30/1/4W</t>
@@ -187,19 +135,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="PingFang SC"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -345,12 +287,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -552,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -602,6 +538,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,133 +794,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,56 +931,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1306,137 +1260,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2000250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8353425" y="2125980"/>
-          <a:ext cx="2371725" cy="2000250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>249555</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1821815</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8353425" y="182880"/>
-          <a:ext cx="2078355" cy="1821815"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>249555</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1821815</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8353425" y="4183380"/>
-          <a:ext cx="2078355" cy="1821815"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1690,13 +1513,12 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="26.6666666666667" customWidth="1"/>
-    <col min="2" max="6" width="19.0277777777778" customWidth="1"/>
+    <col min="1" max="6" width="19.0277777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1719,141 +1541,141 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="153" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>10</v>
+      <c r="E2" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="F2" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="162" customHeight="1" spans="1:6">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="10">
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:6">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>19</v>
+      <c r="E4" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="115.2" spans="1:6">
+    <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="F5" s="10">
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="115.2" spans="1:6">
+    <row r="6" spans="1:6">
       <c r="A6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>24</v>
+      <c r="E6" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="10">
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="230.4" spans="1:6">
+    <row r="7" spans="1:6">
       <c r="A7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>24</v>
+      <c r="E7" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="8" ht="43.2" spans="1:6">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="E8" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="13">
         <v>3</v>
@@ -1862,6 +1684,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>